--- a/13 Reasons Why v2.xlsx
+++ b/13 Reasons Why v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiakerber/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiakerber/Documents/GitHub/PROJETO-2-CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169244C7-07D0-FC44-AF27-02D1F8461186}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F33481-10FD-884C-9108-3020746D0B0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1005">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B599" sqref="B599"/>
+    <sheetView topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="B601" sqref="B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3997,8 +3997,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
+      <c r="B2" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4021,8 +4021,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
+      <c r="B5" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4037,8 +4037,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4061,24 +4061,24 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
+      <c r="B10" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
+      <c r="B11" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
+      <c r="B12" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4093,8 +4093,8 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
+      <c r="B14" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4117,8 +4117,8 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
+      <c r="B17" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4133,8 +4133,8 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4165,8 +4165,8 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
+      <c r="B23" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4189,8 +4189,8 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
+      <c r="B26" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4205,8 +4205,8 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
+      <c r="B28" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4221,8 +4221,8 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
+      <c r="B30" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4237,24 +4237,24 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
+      <c r="B32" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
+      <c r="B33" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
-        <v>0</v>
+      <c r="B34" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4285,8 +4285,8 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
+      <c r="B38" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4301,8 +4301,8 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
+      <c r="B40" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4317,8 +4317,8 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
-        <v>0</v>
+      <c r="B42" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -4333,8 +4333,8 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
+      <c r="B44" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -4349,48 +4349,48 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
-        <v>0</v>
+      <c r="B46" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
-        <v>0</v>
+      <c r="B47" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
-        <v>0</v>
+      <c r="B48" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
+      <c r="B49" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
+      <c r="B50" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
-        <v>0</v>
+      <c r="B51" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4405,8 +4405,8 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
-        <v>0</v>
+      <c r="B53" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4421,16 +4421,16 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
-        <v>0</v>
+      <c r="B55" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
-        <v>0</v>
+      <c r="B56" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4445,8 +4445,8 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
-        <v>0</v>
+      <c r="B58" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4461,8 +4461,8 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
+      <c r="B60" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4485,8 +4485,8 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
-        <v>0</v>
+      <c r="B63" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4501,32 +4501,32 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
-        <v>0</v>
+      <c r="B65" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
-        <v>0</v>
+      <c r="B66" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
-        <v>0</v>
+      <c r="B67" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
-        <v>0</v>
+      <c r="B68" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4557,24 +4557,24 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
-        <v>0</v>
+      <c r="B72" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
-        <v>0</v>
+      <c r="B73" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
-        <v>0</v>
+      <c r="B74" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4589,32 +4589,32 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
-        <v>0</v>
+      <c r="B76" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
-        <v>0</v>
+      <c r="B77" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
-        <v>0</v>
+      <c r="B78" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
-        <v>0</v>
+      <c r="B79" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4637,8 +4637,8 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
-        <v>0</v>
+      <c r="B82" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4669,24 +4669,24 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
-        <v>0</v>
+      <c r="B86" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
-        <v>0</v>
+      <c r="B87" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
-        <v>0</v>
+      <c r="B88" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4725,40 +4725,40 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
-        <v>0</v>
+      <c r="B93" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
-        <v>0</v>
+      <c r="B94" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
-        <v>0</v>
+      <c r="B95" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
-        <v>0</v>
+      <c r="B96" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
-        <v>0</v>
+      <c r="B97" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4781,8 +4781,8 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
-        <v>0</v>
+      <c r="B100" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4805,8 +4805,8 @@
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
-        <v>0</v>
+      <c r="B103" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4853,8 +4853,8 @@
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
-        <v>0</v>
+      <c r="B109" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4885,8 +4885,8 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
-        <v>0</v>
+      <c r="B113" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4901,8 +4901,8 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
+      <c r="B115" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4925,24 +4925,24 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
-        <v>0</v>
+      <c r="B118" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
-        <v>0</v>
+      <c r="B119" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
-        <v>0</v>
+      <c r="B120" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4957,16 +4957,16 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
-        <v>0</v>
+      <c r="B122" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
-        <v>0</v>
+      <c r="B123" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4981,8 +4981,8 @@
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
-        <v>0</v>
+      <c r="B125" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -5013,8 +5013,8 @@
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
-        <v>0</v>
+      <c r="B129" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -5029,8 +5029,8 @@
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
-        <v>0</v>
+      <c r="B131" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -5125,8 +5125,8 @@
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="4">
-        <v>0</v>
+      <c r="B143" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -5157,8 +5157,8 @@
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="4">
-        <v>0</v>
+      <c r="B147" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -5173,8 +5173,8 @@
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="4">
-        <v>0</v>
+      <c r="B149" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -5197,8 +5197,8 @@
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
-        <v>0</v>
+      <c r="B152" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -5237,24 +5237,24 @@
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
-        <v>0</v>
+      <c r="B157" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="4">
-        <v>0</v>
+      <c r="B158" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="4">
-        <v>0</v>
+      <c r="B159" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -5269,8 +5269,8 @@
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="4">
-        <v>0</v>
+      <c r="B161" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -5285,8 +5285,8 @@
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="4">
-        <v>0</v>
+      <c r="B163" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -5301,8 +5301,8 @@
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="4">
-        <v>0</v>
+      <c r="B165" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -5317,8 +5317,8 @@
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="4">
-        <v>0</v>
+      <c r="B167" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -5365,16 +5365,16 @@
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="4">
-        <v>0</v>
+      <c r="B173" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="4">
-        <v>0</v>
+      <c r="B174" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -5397,8 +5397,8 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="4">
-        <v>0</v>
+      <c r="B177" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -5413,8 +5413,8 @@
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="4">
-        <v>0</v>
+      <c r="B179" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -5429,16 +5429,16 @@
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="4">
-        <v>0</v>
+      <c r="B181" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="4">
-        <v>0</v>
+      <c r="B182" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5469,8 +5469,8 @@
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="4">
-        <v>0</v>
+      <c r="B186" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5501,8 +5501,8 @@
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="4">
-        <v>0</v>
+      <c r="B190" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5517,8 +5517,8 @@
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="4">
-        <v>0</v>
+      <c r="B192" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5533,8 +5533,8 @@
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="4">
-        <v>0</v>
+      <c r="B194" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5557,16 +5557,16 @@
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="4">
-        <v>0</v>
+      <c r="B197" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="4">
-        <v>0</v>
+      <c r="B198" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5589,32 +5589,32 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="4">
-        <v>0</v>
+      <c r="B201" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="4">
-        <v>0</v>
+      <c r="B202" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="4">
-        <v>0</v>
+      <c r="B203" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="4">
-        <v>0</v>
+      <c r="B204" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5637,8 +5637,8 @@
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="4">
-        <v>0</v>
+      <c r="B207" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5653,16 +5653,16 @@
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="4">
-        <v>0</v>
+      <c r="B209" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="4">
-        <v>0</v>
+      <c r="B210" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5685,8 +5685,8 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="4">
-        <v>0</v>
+      <c r="B213" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5709,32 +5709,32 @@
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="4">
-        <v>0</v>
+      <c r="B216" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="4">
-        <v>0</v>
+      <c r="B217" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="4">
-        <v>0</v>
+      <c r="B218" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="4">
-        <v>0</v>
+      <c r="B219" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5781,8 +5781,8 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="4">
-        <v>0</v>
+      <c r="B225" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5797,8 +5797,8 @@
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="4">
-        <v>0</v>
+      <c r="B227" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5821,16 +5821,16 @@
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="4">
-        <v>0</v>
+      <c r="B230" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="4">
-        <v>0</v>
+      <c r="B231" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5853,24 +5853,24 @@
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="4">
-        <v>0</v>
+      <c r="B234" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="4">
-        <v>0</v>
+      <c r="B235" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="4">
-        <v>0</v>
+      <c r="B236" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5901,24 +5901,24 @@
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="4">
-        <v>0</v>
+      <c r="B240" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="4">
-        <v>0</v>
+      <c r="B241" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="4">
-        <v>0</v>
+      <c r="B242" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5933,8 +5933,8 @@
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="4">
-        <v>0</v>
+      <c r="B244" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5973,24 +5973,24 @@
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="4">
-        <v>0</v>
+      <c r="B249" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="4">
-        <v>0</v>
+      <c r="B250" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="4">
-        <v>0</v>
+      <c r="B251" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -6029,56 +6029,56 @@
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="4">
-        <v>0</v>
+      <c r="B256" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="4">
-        <v>0</v>
+      <c r="B257" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="4">
-        <v>0</v>
+      <c r="B258" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="4">
-        <v>0</v>
+      <c r="B259" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="4">
-        <v>0</v>
+      <c r="B260" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="4">
-        <v>0</v>
+      <c r="B261" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="4">
-        <v>0</v>
+      <c r="B262" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -6093,16 +6093,16 @@
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="4">
-        <v>0</v>
+      <c r="B264" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="4">
-        <v>0</v>
+      <c r="B265" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -6117,16 +6117,16 @@
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="4">
-        <v>0</v>
+      <c r="B267" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="4">
-        <v>0</v>
+      <c r="B268" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -6173,24 +6173,24 @@
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="4">
-        <v>0</v>
+      <c r="B274" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="4">
-        <v>0</v>
+      <c r="B275" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="4">
-        <v>0</v>
+      <c r="B276" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -6229,8 +6229,8 @@
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="4">
-        <v>0</v>
+      <c r="B281" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -6245,24 +6245,24 @@
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="4">
-        <v>0</v>
+      <c r="B283" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="4">
-        <v>0</v>
+      <c r="B284" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="4">
-        <v>0</v>
+      <c r="B285" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -6285,8 +6285,8 @@
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="4">
-        <v>0</v>
+      <c r="B288" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -6309,16 +6309,16 @@
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="4">
-        <v>0</v>
+      <c r="B291" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="4">
-        <v>0</v>
+      <c r="B292" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -6341,8 +6341,8 @@
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="4">
-        <v>0</v>
+      <c r="B295" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -6381,8 +6381,8 @@
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="5">
-        <v>0</v>
+      <c r="B300" s="5" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -6397,8 +6397,8 @@
       <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="4">
-        <v>0</v>
+      <c r="B302" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -6421,8 +6421,8 @@
       <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="B305" s="4">
-        <v>0</v>
+      <c r="B305" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -6453,16 +6453,16 @@
       <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="4">
-        <v>0</v>
+      <c r="B309" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="4">
-        <v>0</v>
+      <c r="B310" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6477,56 +6477,56 @@
       <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="4">
-        <v>0</v>
+      <c r="B312" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="B313" s="4">
-        <v>0</v>
+      <c r="B313" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="B314" s="4">
-        <v>0</v>
+      <c r="B314" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-      <c r="B315" s="4">
-        <v>0</v>
+      <c r="B315" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="B316" s="4">
-        <v>0</v>
+      <c r="B316" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-      <c r="B317" s="4">
-        <v>0</v>
+      <c r="B317" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-      <c r="B318" s="4">
-        <v>0</v>
+      <c r="B318" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6549,16 +6549,16 @@
       <c r="A321" t="s">
         <v>320</v>
       </c>
-      <c r="B321" s="4">
-        <v>0</v>
+      <c r="B321" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-      <c r="B322" s="4">
-        <v>0</v>
+      <c r="B322" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6581,8 +6581,8 @@
       <c r="A325" t="s">
         <v>324</v>
       </c>
-      <c r="B325" s="4">
-        <v>0</v>
+      <c r="B325" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6597,48 +6597,48 @@
       <c r="A327" t="s">
         <v>326</v>
       </c>
-      <c r="B327" s="4">
-        <v>0</v>
+      <c r="B327" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-      <c r="B328" s="4">
-        <v>0</v>
+      <c r="B328" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-      <c r="B329" s="4">
-        <v>0</v>
+      <c r="B329" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-      <c r="B330" s="4">
-        <v>0</v>
+      <c r="B330" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-      <c r="B331" s="4">
-        <v>0</v>
+      <c r="B331" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-      <c r="B332" s="4">
-        <v>0</v>
+      <c r="B332" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6653,24 +6653,24 @@
       <c r="A334" t="s">
         <v>333</v>
       </c>
-      <c r="B334" s="4">
-        <v>0</v>
+      <c r="B334" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-      <c r="B335" s="4">
-        <v>0</v>
+      <c r="B335" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="4">
-        <v>0</v>
+      <c r="B336" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6701,8 +6701,8 @@
       <c r="A340" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="4">
-        <v>0</v>
+      <c r="B340" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6733,8 +6733,8 @@
       <c r="A344" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="4">
-        <v>0</v>
+      <c r="B344" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6749,8 +6749,8 @@
       <c r="A346" t="s">
         <v>345</v>
       </c>
-      <c r="B346" s="4">
-        <v>0</v>
+      <c r="B346" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6765,8 +6765,8 @@
       <c r="A348" t="s">
         <v>347</v>
       </c>
-      <c r="B348" s="4">
-        <v>0</v>
+      <c r="B348" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6797,16 +6797,16 @@
       <c r="A352" t="s">
         <v>351</v>
       </c>
-      <c r="B352" s="4">
-        <v>0</v>
+      <c r="B352" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-      <c r="B353" s="4">
-        <v>0</v>
+      <c r="B353" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6821,16 +6821,16 @@
       <c r="A355" t="s">
         <v>354</v>
       </c>
-      <c r="B355" s="4">
-        <v>0</v>
+      <c r="B355" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-      <c r="B356" s="4">
-        <v>0</v>
+      <c r="B356" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6853,8 +6853,8 @@
       <c r="A359" t="s">
         <v>358</v>
       </c>
-      <c r="B359" s="4">
-        <v>0</v>
+      <c r="B359" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6885,24 +6885,24 @@
       <c r="A363" t="s">
         <v>362</v>
       </c>
-      <c r="B363" s="4">
-        <v>0</v>
+      <c r="B363" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-      <c r="B364" s="4">
-        <v>0</v>
+      <c r="B364" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-      <c r="B365" s="4">
-        <v>0</v>
+      <c r="B365" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6917,48 +6917,48 @@
       <c r="A367" t="s">
         <v>366</v>
       </c>
-      <c r="B367" s="4">
-        <v>0</v>
+      <c r="B367" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-      <c r="B368" s="4">
-        <v>0</v>
+      <c r="B368" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="4">
-        <v>0</v>
+      <c r="B369" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="4">
-        <v>0</v>
+      <c r="B370" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="4">
-        <v>0</v>
+      <c r="B371" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="4">
-        <v>0</v>
+      <c r="B372" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6981,56 +6981,56 @@
       <c r="A375" t="s">
         <v>374</v>
       </c>
-      <c r="B375" s="4">
-        <v>0</v>
+      <c r="B375" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-      <c r="B376" s="4">
-        <v>0</v>
+      <c r="B376" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-      <c r="B377" s="4">
-        <v>0</v>
+      <c r="B377" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-      <c r="B378" s="4">
-        <v>0</v>
+      <c r="B378" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-      <c r="B379" s="4">
-        <v>0</v>
+      <c r="B379" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-      <c r="B380" s="4">
-        <v>0</v>
+      <c r="B380" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-      <c r="B381" s="4">
-        <v>0</v>
+      <c r="B381" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -7061,16 +7061,16 @@
       <c r="A385" t="s">
         <v>384</v>
       </c>
-      <c r="B385" s="4">
-        <v>0</v>
+      <c r="B385" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-      <c r="B386" s="4">
-        <v>0</v>
+      <c r="B386" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -7085,8 +7085,8 @@
       <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="B388" s="4">
-        <v>0</v>
+      <c r="B388" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -7101,24 +7101,24 @@
       <c r="A390" t="s">
         <v>389</v>
       </c>
-      <c r="B390" s="4">
-        <v>0</v>
+      <c r="B390" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-      <c r="B391" s="4">
-        <v>0</v>
+      <c r="B391" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-      <c r="B392" s="4">
-        <v>0</v>
+      <c r="B392" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -7133,8 +7133,8 @@
       <c r="A394" t="s">
         <v>393</v>
       </c>
-      <c r="B394" s="4">
-        <v>0</v>
+      <c r="B394" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -7149,8 +7149,8 @@
       <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="B396" s="4">
-        <v>0</v>
+      <c r="B396" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -7173,16 +7173,16 @@
       <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="B399" s="4">
-        <v>0</v>
+      <c r="B399" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="B400" s="4">
-        <v>0</v>
+      <c r="B400" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -7205,48 +7205,48 @@
       <c r="A403" t="s">
         <v>402</v>
       </c>
-      <c r="B403" s="4">
-        <v>0</v>
+      <c r="B403" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="4">
-        <v>0</v>
+      <c r="B404" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="4">
-        <v>0</v>
+      <c r="B405" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="4">
-        <v>0</v>
+      <c r="B406" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="4">
-        <v>0</v>
+      <c r="B407" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-      <c r="B408" s="4">
-        <v>0</v>
+      <c r="B408" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -7269,16 +7269,16 @@
       <c r="A411" t="s">
         <v>410</v>
       </c>
-      <c r="B411" s="4">
-        <v>0</v>
+      <c r="B411" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-      <c r="B412" s="4">
-        <v>0</v>
+      <c r="B412" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -7293,8 +7293,8 @@
       <c r="A414" t="s">
         <v>413</v>
       </c>
-      <c r="B414" s="4">
-        <v>0</v>
+      <c r="B414" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -7309,8 +7309,8 @@
       <c r="A416" t="s">
         <v>415</v>
       </c>
-      <c r="B416" s="4">
-        <v>0</v>
+      <c r="B416" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -7349,8 +7349,8 @@
       <c r="A421" t="s">
         <v>420</v>
       </c>
-      <c r="B421" s="4">
-        <v>0</v>
+      <c r="B421" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -7381,8 +7381,8 @@
       <c r="A425" t="s">
         <v>424</v>
       </c>
-      <c r="B425" s="4">
-        <v>0</v>
+      <c r="B425" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -7405,8 +7405,8 @@
       <c r="A428" t="s">
         <v>427</v>
       </c>
-      <c r="B428" s="4">
-        <v>0</v>
+      <c r="B428" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -7429,8 +7429,8 @@
       <c r="A431" t="s">
         <v>430</v>
       </c>
-      <c r="B431" s="4">
-        <v>0</v>
+      <c r="B431" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7461,40 +7461,40 @@
       <c r="A435" t="s">
         <v>434</v>
       </c>
-      <c r="B435" s="4">
-        <v>0</v>
+      <c r="B435" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-      <c r="B436" s="4">
-        <v>0</v>
+      <c r="B436" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-      <c r="B437" s="4">
-        <v>0</v>
+      <c r="B437" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="4">
-        <v>0</v>
+      <c r="B438" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="4">
-        <v>0</v>
+      <c r="B439" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7517,24 +7517,24 @@
       <c r="A442" t="s">
         <v>441</v>
       </c>
-      <c r="B442" s="4">
-        <v>0</v>
+      <c r="B442" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-      <c r="B443" s="4">
-        <v>0</v>
+      <c r="B443" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-      <c r="B444" s="4">
-        <v>0</v>
+      <c r="B444" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7549,8 +7549,8 @@
       <c r="A446" t="s">
         <v>445</v>
       </c>
-      <c r="B446" s="4">
-        <v>0</v>
+      <c r="B446" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7589,24 +7589,24 @@
       <c r="A451" t="s">
         <v>450</v>
       </c>
-      <c r="B451" s="4">
-        <v>0</v>
+      <c r="B451" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-      <c r="B452" s="4">
-        <v>0</v>
+      <c r="B452" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-      <c r="B453" s="4">
-        <v>0</v>
+      <c r="B453" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7621,8 +7621,8 @@
       <c r="A455" t="s">
         <v>454</v>
       </c>
-      <c r="B455" s="4">
-        <v>0</v>
+      <c r="B455" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7637,8 +7637,8 @@
       <c r="A457" t="s">
         <v>456</v>
       </c>
-      <c r="B457" s="4">
-        <v>0</v>
+      <c r="B457" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7653,8 +7653,8 @@
       <c r="A459" t="s">
         <v>458</v>
       </c>
-      <c r="B459" s="4">
-        <v>0</v>
+      <c r="B459" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7677,32 +7677,32 @@
       <c r="A462" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="4">
-        <v>0</v>
+      <c r="B462" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-      <c r="B463" s="4">
-        <v>0</v>
+      <c r="B463" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-      <c r="B464" s="4">
-        <v>0</v>
+      <c r="B464" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-      <c r="B465" s="4">
-        <v>0</v>
+      <c r="B465" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7725,16 +7725,16 @@
       <c r="A468" t="s">
         <v>467</v>
       </c>
-      <c r="B468" s="4">
-        <v>0</v>
+      <c r="B468" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-      <c r="B469" s="4">
-        <v>0</v>
+      <c r="B469" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7757,8 +7757,8 @@
       <c r="A472" t="s">
         <v>471</v>
       </c>
-      <c r="B472" s="4">
-        <v>0</v>
+      <c r="B472" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7773,8 +7773,8 @@
       <c r="A474" t="s">
         <v>473</v>
       </c>
-      <c r="B474" s="4">
-        <v>0</v>
+      <c r="B474" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7789,8 +7789,8 @@
       <c r="A476" t="s">
         <v>475</v>
       </c>
-      <c r="B476" s="4">
-        <v>0</v>
+      <c r="B476" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7805,32 +7805,32 @@
       <c r="A478" t="s">
         <v>477</v>
       </c>
-      <c r="B478" s="4">
-        <v>0</v>
+      <c r="B478" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-      <c r="B479" s="4">
-        <v>0</v>
+      <c r="B479" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="4">
-        <v>0</v>
+      <c r="B480" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-      <c r="B481" s="4">
-        <v>0</v>
+      <c r="B481" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7853,8 +7853,8 @@
       <c r="A484" t="s">
         <v>483</v>
       </c>
-      <c r="B484" s="4">
-        <v>0</v>
+      <c r="B484" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7869,8 +7869,8 @@
       <c r="A486" t="s">
         <v>485</v>
       </c>
-      <c r="B486" s="4">
-        <v>0</v>
+      <c r="B486" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7893,8 +7893,8 @@
       <c r="A489" t="s">
         <v>488</v>
       </c>
-      <c r="B489" s="4">
-        <v>0</v>
+      <c r="B489" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7909,8 +7909,8 @@
       <c r="A491" t="s">
         <v>490</v>
       </c>
-      <c r="B491" s="4">
-        <v>0</v>
+      <c r="B491" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7941,16 +7941,16 @@
       <c r="A495" t="s">
         <v>494</v>
       </c>
-      <c r="B495" s="4">
-        <v>0</v>
+      <c r="B495" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="4">
-        <v>0</v>
+      <c r="B496" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7965,24 +7965,24 @@
       <c r="A498" t="s">
         <v>497</v>
       </c>
-      <c r="B498" s="4">
-        <v>0</v>
+      <c r="B498" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-      <c r="B499" s="4">
-        <v>0</v>
+      <c r="B499" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-      <c r="B500" s="4">
-        <v>0</v>
+      <c r="B500" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7997,8 +7997,8 @@
       <c r="A502" t="s">
         <v>501</v>
       </c>
-      <c r="B502" s="4">
-        <v>0</v>
+      <c r="B502" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -8029,24 +8029,24 @@
       <c r="A506" t="s">
         <v>505</v>
       </c>
-      <c r="B506" s="4">
-        <v>0</v>
+      <c r="B506" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
-      <c r="B507" s="4">
-        <v>0</v>
+      <c r="B507" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
-      <c r="B508" s="4">
-        <v>0</v>
+      <c r="B508" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -8061,16 +8061,16 @@
       <c r="A510" t="s">
         <v>509</v>
       </c>
-      <c r="B510" s="4">
-        <v>0</v>
+      <c r="B510" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
-      <c r="B511" s="4">
-        <v>0</v>
+      <c r="B511" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -8109,16 +8109,16 @@
       <c r="A516" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="4">
-        <v>0</v>
+      <c r="B516" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
-      <c r="B517" s="4">
-        <v>0</v>
+      <c r="B517" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -8133,16 +8133,16 @@
       <c r="A519" t="s">
         <v>518</v>
       </c>
-      <c r="B519" s="4">
-        <v>0</v>
+      <c r="B519" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
-      <c r="B520" s="4">
-        <v>0</v>
+      <c r="B520" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -8157,8 +8157,8 @@
       <c r="A522" t="s">
         <v>521</v>
       </c>
-      <c r="B522" s="4">
-        <v>0</v>
+      <c r="B522" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -8181,8 +8181,8 @@
       <c r="A525" t="s">
         <v>524</v>
       </c>
-      <c r="B525" s="4">
-        <v>0</v>
+      <c r="B525" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -8205,8 +8205,8 @@
       <c r="A528" t="s">
         <v>527</v>
       </c>
-      <c r="B528" s="4">
-        <v>0</v>
+      <c r="B528" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -8221,8 +8221,8 @@
       <c r="A530" t="s">
         <v>529</v>
       </c>
-      <c r="B530" s="4">
-        <v>0</v>
+      <c r="B530" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -8237,8 +8237,8 @@
       <c r="A532" t="s">
         <v>531</v>
       </c>
-      <c r="B532" s="4">
-        <v>0</v>
+      <c r="B532" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -8261,16 +8261,16 @@
       <c r="A535" t="s">
         <v>534</v>
       </c>
-      <c r="B535" s="4">
-        <v>0</v>
+      <c r="B535" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
-      <c r="B536" s="4">
-        <v>0</v>
+      <c r="B536" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -8285,16 +8285,16 @@
       <c r="A538" t="s">
         <v>537</v>
       </c>
-      <c r="B538" s="4">
-        <v>0</v>
+      <c r="B538" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
-      <c r="B539" s="4">
-        <v>0</v>
+      <c r="B539" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -8309,16 +8309,16 @@
       <c r="A541" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="4">
-        <v>0</v>
+      <c r="B541" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
-      <c r="B542" s="4">
-        <v>0</v>
+      <c r="B542" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -8333,8 +8333,8 @@
       <c r="A544" t="s">
         <v>543</v>
       </c>
-      <c r="B544" s="4">
-        <v>0</v>
+      <c r="B544" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -8349,16 +8349,16 @@
       <c r="A546" t="s">
         <v>545</v>
       </c>
-      <c r="B546" s="4">
-        <v>0</v>
+      <c r="B546" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
-      <c r="B547" s="4">
-        <v>0</v>
+      <c r="B547" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -8373,8 +8373,8 @@
       <c r="A549" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="4">
-        <v>0</v>
+      <c r="B549" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -8405,16 +8405,16 @@
       <c r="A553" t="s">
         <v>552</v>
       </c>
-      <c r="B553" s="4">
-        <v>0</v>
+      <c r="B553" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
-      <c r="B554" s="4">
-        <v>0</v>
+      <c r="B554" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -8429,16 +8429,16 @@
       <c r="A556" t="s">
         <v>555</v>
       </c>
-      <c r="B556" s="4">
-        <v>0</v>
+      <c r="B556" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
-      <c r="B557" s="4">
-        <v>0</v>
+      <c r="B557" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -8461,8 +8461,8 @@
       <c r="A560" t="s">
         <v>559</v>
       </c>
-      <c r="B560" s="4">
-        <v>0</v>
+      <c r="B560" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -8501,8 +8501,8 @@
       <c r="A565" t="s">
         <v>564</v>
       </c>
-      <c r="B565" s="4">
-        <v>0</v>
+      <c r="B565" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -8517,64 +8517,64 @@
       <c r="A567" t="s">
         <v>566</v>
       </c>
-      <c r="B567" s="4">
-        <v>0</v>
+      <c r="B567" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
-      <c r="B568" s="4">
-        <v>0</v>
+      <c r="B568" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
-      <c r="B569" s="4">
-        <v>0</v>
+      <c r="B569" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
-      <c r="B570" s="4">
-        <v>0</v>
+      <c r="B570" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
-      <c r="B571" s="4">
-        <v>0</v>
+      <c r="B571" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
-      <c r="B572" s="4">
-        <v>0</v>
+      <c r="B572" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
-      <c r="B573" s="4">
-        <v>0</v>
+      <c r="B573" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
-      <c r="B574" s="4">
-        <v>0</v>
+      <c r="B574" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -8605,24 +8605,24 @@
       <c r="A578" t="s">
         <v>577</v>
       </c>
-      <c r="B578" s="4">
-        <v>0</v>
+      <c r="B578" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
-      <c r="B579" s="4">
-        <v>0</v>
+      <c r="B579" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
-      <c r="B580" s="4">
-        <v>0</v>
+      <c r="B580" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -8637,8 +8637,8 @@
       <c r="A582" t="s">
         <v>581</v>
       </c>
-      <c r="B582" s="4">
-        <v>0</v>
+      <c r="B582" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -8653,8 +8653,8 @@
       <c r="A584" t="s">
         <v>583</v>
       </c>
-      <c r="B584" s="4">
-        <v>0</v>
+      <c r="B584" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -8693,24 +8693,24 @@
       <c r="A589" t="s">
         <v>588</v>
       </c>
-      <c r="B589" s="4">
-        <v>0</v>
+      <c r="B589" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
-      <c r="B590" s="4">
-        <v>0</v>
+      <c r="B590" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
-      <c r="B591" s="4">
-        <v>0</v>
+      <c r="B591" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -8741,8 +8741,8 @@
       <c r="A595" t="s">
         <v>594</v>
       </c>
-      <c r="B595" s="4">
-        <v>0</v>
+      <c r="B595" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -8757,16 +8757,16 @@
       <c r="A597" t="s">
         <v>596</v>
       </c>
-      <c r="B597" s="4">
-        <v>0</v>
+      <c r="B597" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
-      <c r="B598" s="4">
-        <v>0</v>
+      <c r="B598" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -8781,8 +8781,8 @@
       <c r="A600" t="s">
         <v>599</v>
       </c>
-      <c r="B600" s="4">
-        <v>0</v>
+      <c r="B600" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -8805,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8832,16 +8832,16 @@
       <c r="A3" t="s">
         <v>603</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>604</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
+      <c r="B4" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8856,8 +8856,8 @@
       <c r="A6" t="s">
         <v>606</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
+      <c r="B6" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8872,16 +8872,16 @@
       <c r="A8" t="s">
         <v>608</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>609</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
+      <c r="B9" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8912,24 +8912,24 @@
       <c r="A13" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
+      <c r="B13" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>614</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
+      <c r="B14" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>615</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
+      <c r="B15" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -8960,16 +8960,16 @@
       <c r="A19" t="s">
         <v>619</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>620</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
+      <c r="B20" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8992,24 +8992,24 @@
       <c r="A23" t="s">
         <v>623</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
+      <c r="B23" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>624</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
+      <c r="B24" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>625</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
+      <c r="B25" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9024,32 +9024,32 @@
       <c r="A27" t="s">
         <v>627</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
+      <c r="B27" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>628</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
+      <c r="B28" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>629</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
+      <c r="B29" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>630</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
+      <c r="B30" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -9072,8 +9072,8 @@
       <c r="A33" t="s">
         <v>633</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
+      <c r="B33" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -9088,8 +9088,8 @@
       <c r="A35" t="s">
         <v>635</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
+      <c r="B35" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -9104,16 +9104,16 @@
       <c r="A37" t="s">
         <v>637</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
+      <c r="B37" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>638</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
+      <c r="B38" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -9152,8 +9152,8 @@
       <c r="A43" t="s">
         <v>643</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
+      <c r="B43" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -9168,8 +9168,8 @@
       <c r="A45" t="s">
         <v>645</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
+      <c r="B45" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -9208,8 +9208,8 @@
       <c r="A50" t="s">
         <v>650</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
+      <c r="B50" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -9248,16 +9248,16 @@
       <c r="A55" t="s">
         <v>655</v>
       </c>
-      <c r="B55" s="4">
-        <v>0</v>
+      <c r="B55" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>656</v>
       </c>
-      <c r="B56" s="4">
-        <v>0</v>
+      <c r="B56" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -9288,8 +9288,8 @@
       <c r="A60" t="s">
         <v>660</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
+      <c r="B60" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -9304,8 +9304,8 @@
       <c r="A62" t="s">
         <v>662</v>
       </c>
-      <c r="B62" s="4">
-        <v>0</v>
+      <c r="B62" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -9320,56 +9320,56 @@
       <c r="A64" t="s">
         <v>664</v>
       </c>
-      <c r="B64" s="4">
-        <v>0</v>
+      <c r="B64" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>665</v>
       </c>
-      <c r="B65" s="4">
-        <v>0</v>
+      <c r="B65" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>666</v>
       </c>
-      <c r="B66" s="4">
-        <v>0</v>
+      <c r="B66" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>667</v>
       </c>
-      <c r="B67" s="4">
-        <v>0</v>
+      <c r="B67" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>668</v>
       </c>
-      <c r="B68" s="4">
-        <v>0</v>
+      <c r="B68" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>669</v>
       </c>
-      <c r="B69" s="4">
-        <v>0</v>
+      <c r="B69" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>670</v>
       </c>
-      <c r="B70" s="4">
-        <v>0</v>
+      <c r="B70" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -9400,8 +9400,8 @@
       <c r="A74" t="s">
         <v>674</v>
       </c>
-      <c r="B74" s="4">
-        <v>0</v>
+      <c r="B74" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -9416,80 +9416,80 @@
       <c r="A76" t="s">
         <v>676</v>
       </c>
-      <c r="B76" s="4">
-        <v>0</v>
+      <c r="B76" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>677</v>
       </c>
-      <c r="B77" s="4">
-        <v>0</v>
+      <c r="B77" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>678</v>
       </c>
-      <c r="B78" s="4">
-        <v>0</v>
+      <c r="B78" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>679</v>
       </c>
-      <c r="B79" s="4">
-        <v>0</v>
+      <c r="B79" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>680</v>
       </c>
-      <c r="B80" s="4">
-        <v>0</v>
+      <c r="B80" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>681</v>
       </c>
-      <c r="B81" s="4">
-        <v>0</v>
+      <c r="B81" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>682</v>
       </c>
-      <c r="B82" s="4">
-        <v>0</v>
+      <c r="B82" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>683</v>
       </c>
-      <c r="B83" s="4">
-        <v>0</v>
+      <c r="B83" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>684</v>
       </c>
-      <c r="B84" s="4">
-        <v>0</v>
+      <c r="B84" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>685</v>
       </c>
-      <c r="B85" s="4">
-        <v>0</v>
+      <c r="B85" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -9504,40 +9504,40 @@
       <c r="A87" t="s">
         <v>687</v>
       </c>
-      <c r="B87" s="4">
-        <v>0</v>
+      <c r="B87" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>688</v>
       </c>
-      <c r="B88" s="4">
-        <v>0</v>
+      <c r="B88" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>689</v>
       </c>
-      <c r="B89" s="4">
-        <v>0</v>
+      <c r="B89" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>690</v>
       </c>
-      <c r="B90" s="4">
-        <v>0</v>
+      <c r="B90" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>691</v>
       </c>
-      <c r="B91" s="4">
-        <v>0</v>
+      <c r="B91" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -9584,16 +9584,16 @@
       <c r="A97" t="s">
         <v>697</v>
       </c>
-      <c r="B97" s="4">
-        <v>0</v>
+      <c r="B97" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>698</v>
       </c>
-      <c r="B98" s="4">
-        <v>0</v>
+      <c r="B98" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -9608,8 +9608,8 @@
       <c r="A100" t="s">
         <v>700</v>
       </c>
-      <c r="B100" s="4">
-        <v>0</v>
+      <c r="B100" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -9624,32 +9624,32 @@
       <c r="A102" t="s">
         <v>702</v>
       </c>
-      <c r="B102" s="4">
-        <v>0</v>
+      <c r="B102" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>703</v>
       </c>
-      <c r="B103" s="4">
-        <v>0</v>
+      <c r="B103" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>704</v>
       </c>
-      <c r="B104" s="4">
-        <v>0</v>
+      <c r="B104" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>705</v>
       </c>
-      <c r="B105" s="4">
-        <v>0</v>
+      <c r="B105" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -9672,8 +9672,8 @@
       <c r="A108" t="s">
         <v>708</v>
       </c>
-      <c r="B108" s="4">
-        <v>0</v>
+      <c r="B108" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -9704,16 +9704,16 @@
       <c r="A112" t="s">
         <v>712</v>
       </c>
-      <c r="B112" s="4">
-        <v>0</v>
+      <c r="B112" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>713</v>
       </c>
-      <c r="B113" s="4">
-        <v>0</v>
+      <c r="B113" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -9728,16 +9728,16 @@
       <c r="A115" t="s">
         <v>715</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
+      <c r="B115" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>716</v>
       </c>
-      <c r="B116" s="4">
-        <v>0</v>
+      <c r="B116" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -9784,8 +9784,8 @@
       <c r="A122" t="s">
         <v>722</v>
       </c>
-      <c r="B122" s="4">
-        <v>0</v>
+      <c r="B122" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -9832,24 +9832,24 @@
       <c r="A128" t="s">
         <v>728</v>
       </c>
-      <c r="B128" s="4">
-        <v>0</v>
+      <c r="B128" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>729</v>
       </c>
-      <c r="B129" s="4">
-        <v>0</v>
+      <c r="B129" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="4">
-        <v>0</v>
+      <c r="B130" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -9864,8 +9864,8 @@
       <c r="A132" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="4">
-        <v>0</v>
+      <c r="B132" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -9880,16 +9880,16 @@
       <c r="A134" t="s">
         <v>734</v>
       </c>
-      <c r="B134" s="4">
-        <v>0</v>
+      <c r="B134" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>735</v>
       </c>
-      <c r="B135" s="4">
-        <v>0</v>
+      <c r="B135" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -9912,16 +9912,16 @@
       <c r="A138" t="s">
         <v>738</v>
       </c>
-      <c r="B138" s="4">
-        <v>0</v>
+      <c r="B138" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>739</v>
       </c>
-      <c r="B139" s="4">
-        <v>0</v>
+      <c r="B139" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -9936,8 +9936,8 @@
       <c r="A141" t="s">
         <v>741</v>
       </c>
-      <c r="B141" s="4">
-        <v>0</v>
+      <c r="B141" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -9952,8 +9952,8 @@
       <c r="A143" t="s">
         <v>743</v>
       </c>
-      <c r="B143" s="4">
-        <v>0</v>
+      <c r="B143" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -9984,24 +9984,24 @@
       <c r="A147" t="s">
         <v>747</v>
       </c>
-      <c r="B147" s="4">
-        <v>0</v>
+      <c r="B147" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>748</v>
       </c>
-      <c r="B148" s="4">
-        <v>0</v>
+      <c r="B148" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>749</v>
       </c>
-      <c r="B149" s="4">
-        <v>0</v>
+      <c r="B149" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -10032,40 +10032,40 @@
       <c r="A153" t="s">
         <v>753</v>
       </c>
-      <c r="B153" s="4">
-        <v>0</v>
+      <c r="B153" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>754</v>
       </c>
-      <c r="B154" s="4">
-        <v>0</v>
+      <c r="B154" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>755</v>
       </c>
-      <c r="B155" s="4">
-        <v>0</v>
+      <c r="B155" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>756</v>
       </c>
-      <c r="B156" s="4">
-        <v>0</v>
+      <c r="B156" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>757</v>
       </c>
-      <c r="B157" s="4">
-        <v>0</v>
+      <c r="B157" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -10096,24 +10096,24 @@
       <c r="A161" t="s">
         <v>761</v>
       </c>
-      <c r="B161" s="4">
-        <v>0</v>
+      <c r="B161" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>762</v>
       </c>
-      <c r="B162" s="4">
-        <v>0</v>
+      <c r="B162" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>763</v>
       </c>
-      <c r="B163" s="4">
-        <v>0</v>
+      <c r="B163" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -10128,8 +10128,8 @@
       <c r="A165" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="4">
-        <v>0</v>
+      <c r="B165" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -10144,8 +10144,8 @@
       <c r="A167" t="s">
         <v>767</v>
       </c>
-      <c r="B167" s="4">
-        <v>0</v>
+      <c r="B167" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -10168,8 +10168,8 @@
       <c r="A170" t="s">
         <v>770</v>
       </c>
-      <c r="B170" s="4">
-        <v>0</v>
+      <c r="B170" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -10192,8 +10192,8 @@
       <c r="A173" t="s">
         <v>773</v>
       </c>
-      <c r="B173" s="4">
-        <v>0</v>
+      <c r="B173" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -10217,15 +10217,15 @@
         <v>776</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>777</v>
       </c>
-      <c r="B177" s="4">
-        <v>0</v>
+      <c r="B177" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -10240,8 +10240,8 @@
       <c r="A179" t="s">
         <v>779</v>
       </c>
-      <c r="B179" s="4">
-        <v>0</v>
+      <c r="B179" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -10264,8 +10264,8 @@
       <c r="A182" t="s">
         <v>782</v>
       </c>
-      <c r="B182" s="4">
-        <v>0</v>
+      <c r="B182" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -10296,16 +10296,16 @@
       <c r="A186" t="s">
         <v>786</v>
       </c>
-      <c r="B186" s="4">
-        <v>0</v>
+      <c r="B186" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>787</v>
       </c>
-      <c r="B187" s="4">
-        <v>0</v>
+      <c r="B187" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -10328,24 +10328,24 @@
       <c r="A190" t="s">
         <v>790</v>
       </c>
-      <c r="B190" s="4">
-        <v>0</v>
+      <c r="B190" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>791</v>
       </c>
-      <c r="B191" s="4">
-        <v>0</v>
+      <c r="B191" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>792</v>
       </c>
-      <c r="B192" s="4">
-        <v>0</v>
+      <c r="B192" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -10376,8 +10376,8 @@
       <c r="A196" t="s">
         <v>796</v>
       </c>
-      <c r="B196" s="4">
-        <v>0</v>
+      <c r="B196" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -10392,40 +10392,40 @@
       <c r="A198" t="s">
         <v>798</v>
       </c>
-      <c r="B198" s="4">
-        <v>0</v>
+      <c r="B198" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>799</v>
       </c>
-      <c r="B199" s="4">
-        <v>0</v>
+      <c r="B199" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>800</v>
       </c>
-      <c r="B200" s="4">
-        <v>0</v>
+      <c r="B200" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>801</v>
       </c>
-      <c r="B201" s="4">
-        <v>0</v>
+      <c r="B201" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>802</v>
       </c>
-      <c r="B202" s="4">
-        <v>0</v>
+      <c r="B202" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -10448,8 +10448,8 @@
       <c r="A205" t="s">
         <v>805</v>
       </c>
-      <c r="B205" s="4">
-        <v>0</v>
+      <c r="B205" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -10472,16 +10472,16 @@
       <c r="A208" t="s">
         <v>808</v>
       </c>
-      <c r="B208" s="4">
-        <v>0</v>
+      <c r="B208" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>809</v>
       </c>
-      <c r="B209" s="4">
-        <v>0</v>
+      <c r="B209" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -10504,24 +10504,24 @@
       <c r="A212" t="s">
         <v>812</v>
       </c>
-      <c r="B212" s="4">
-        <v>0</v>
+      <c r="B212" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>813</v>
       </c>
-      <c r="B213" s="4">
-        <v>0</v>
+      <c r="B213" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>814</v>
       </c>
-      <c r="B214" s="4">
-        <v>0</v>
+      <c r="B214" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -10544,8 +10544,8 @@
       <c r="A217" t="s">
         <v>817</v>
       </c>
-      <c r="B217" s="4">
-        <v>0</v>
+      <c r="B217" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -10560,16 +10560,16 @@
       <c r="A219" t="s">
         <v>819</v>
       </c>
-      <c r="B219" s="4">
-        <v>0</v>
+      <c r="B219" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>820</v>
       </c>
-      <c r="B220" s="4">
-        <v>0</v>
+      <c r="B220" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -10584,8 +10584,8 @@
       <c r="A222" t="s">
         <v>822</v>
       </c>
-      <c r="B222" s="4">
-        <v>0</v>
+      <c r="B222" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -10608,8 +10608,8 @@
       <c r="A225" t="s">
         <v>825</v>
       </c>
-      <c r="B225" s="4">
-        <v>0</v>
+      <c r="B225" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -10624,8 +10624,8 @@
       <c r="A227" t="s">
         <v>827</v>
       </c>
-      <c r="B227" s="4">
-        <v>0</v>
+      <c r="B227" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -10640,8 +10640,8 @@
       <c r="A229" t="s">
         <v>829</v>
       </c>
-      <c r="B229" s="4">
-        <v>0</v>
+      <c r="B229" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -10656,8 +10656,8 @@
       <c r="A231" t="s">
         <v>831</v>
       </c>
-      <c r="B231" s="4">
-        <v>0</v>
+      <c r="B231" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -10680,24 +10680,24 @@
       <c r="A234" t="s">
         <v>834</v>
       </c>
-      <c r="B234" s="4">
-        <v>0</v>
+      <c r="B234" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>835</v>
       </c>
-      <c r="B235" s="4">
-        <v>0</v>
+      <c r="B235" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>836</v>
       </c>
-      <c r="B236" s="4">
-        <v>0</v>
+      <c r="B236" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -10712,8 +10712,8 @@
       <c r="A238" t="s">
         <v>838</v>
       </c>
-      <c r="B238" s="4">
-        <v>0</v>
+      <c r="B238" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -10776,16 +10776,16 @@
       <c r="A246" t="s">
         <v>846</v>
       </c>
-      <c r="B246" s="4">
-        <v>0</v>
+      <c r="B246" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>847</v>
       </c>
-      <c r="B247" s="4">
-        <v>0</v>
+      <c r="B247" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -10816,8 +10816,8 @@
       <c r="A251" t="s">
         <v>851</v>
       </c>
-      <c r="B251" s="4">
-        <v>0</v>
+      <c r="B251" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -10832,32 +10832,32 @@
       <c r="A253" t="s">
         <v>853</v>
       </c>
-      <c r="B253" s="4">
-        <v>0</v>
+      <c r="B253" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>854</v>
       </c>
-      <c r="B254" s="4">
-        <v>0</v>
+      <c r="B254" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>855</v>
       </c>
-      <c r="B255" s="4">
-        <v>0</v>
+      <c r="B255" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>856</v>
       </c>
-      <c r="B256" s="4">
-        <v>0</v>
+      <c r="B256" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -10896,24 +10896,24 @@
       <c r="A261" t="s">
         <v>861</v>
       </c>
-      <c r="B261" s="4">
-        <v>0</v>
+      <c r="B261" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>862</v>
       </c>
-      <c r="B262" s="4">
-        <v>0</v>
+      <c r="B262" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>863</v>
       </c>
-      <c r="B263" s="4">
-        <v>0</v>
+      <c r="B263" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -10928,16 +10928,16 @@
       <c r="A265" t="s">
         <v>865</v>
       </c>
-      <c r="B265" s="4">
-        <v>0</v>
+      <c r="B265" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>866</v>
       </c>
-      <c r="B266" s="4">
-        <v>0</v>
+      <c r="B266" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -10952,8 +10952,8 @@
       <c r="A268" t="s">
         <v>868</v>
       </c>
-      <c r="B268" s="4">
-        <v>0</v>
+      <c r="B268" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -10976,16 +10976,16 @@
       <c r="A271" t="s">
         <v>871</v>
       </c>
-      <c r="B271" s="4">
-        <v>0</v>
+      <c r="B271" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>872</v>
       </c>
-      <c r="B272" s="4">
-        <v>0</v>
+      <c r="B272" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -11000,8 +11000,8 @@
       <c r="A274" t="s">
         <v>874</v>
       </c>
-      <c r="B274" s="4">
-        <v>0</v>
+      <c r="B274" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -11048,40 +11048,40 @@
       <c r="A280" t="s">
         <v>880</v>
       </c>
-      <c r="B280" s="4">
-        <v>0</v>
+      <c r="B280" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>881</v>
       </c>
-      <c r="B281" s="4">
-        <v>0</v>
+      <c r="B281" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>882</v>
       </c>
-      <c r="B282" s="4">
-        <v>0</v>
+      <c r="B282" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>883</v>
       </c>
-      <c r="B283" s="4">
-        <v>0</v>
+      <c r="B283" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>884</v>
       </c>
-      <c r="B284" s="4">
-        <v>0</v>
+      <c r="B284" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -11104,32 +11104,32 @@
       <c r="A287" t="s">
         <v>887</v>
       </c>
-      <c r="B287" s="4">
-        <v>0</v>
+      <c r="B287" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>888</v>
       </c>
-      <c r="B288" s="4">
-        <v>0</v>
+      <c r="B288" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>889</v>
       </c>
-      <c r="B289" s="4">
-        <v>0</v>
+      <c r="B289" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>890</v>
       </c>
-      <c r="B290" s="4">
-        <v>0</v>
+      <c r="B290" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -11152,8 +11152,8 @@
       <c r="A293" t="s">
         <v>893</v>
       </c>
-      <c r="B293" s="4">
-        <v>0</v>
+      <c r="B293" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -11184,8 +11184,8 @@
       <c r="A297" t="s">
         <v>897</v>
       </c>
-      <c r="B297" s="4">
-        <v>0</v>
+      <c r="B297" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -11208,24 +11208,24 @@
       <c r="A300" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="B300" s="9">
-        <v>0</v>
+      <c r="B300" s="9" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>901</v>
       </c>
-      <c r="B301" s="4">
-        <v>0</v>
+      <c r="B301" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>902</v>
       </c>
-      <c r="B302" s="4">
-        <v>0</v>
+      <c r="B302" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -11248,8 +11248,8 @@
       <c r="A305" t="s">
         <v>905</v>
       </c>
-      <c r="B305" s="4">
-        <v>0</v>
+      <c r="B305" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -11264,8 +11264,8 @@
       <c r="A307" t="s">
         <v>907</v>
       </c>
-      <c r="B307" s="4">
-        <v>0</v>
+      <c r="B307" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -11280,48 +11280,48 @@
       <c r="A309" t="s">
         <v>909</v>
       </c>
-      <c r="B309" s="4">
-        <v>0</v>
+      <c r="B309" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>910</v>
       </c>
-      <c r="B310" s="4">
-        <v>0</v>
+      <c r="B310" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>911</v>
       </c>
-      <c r="B311" s="4">
-        <v>0</v>
+      <c r="B311" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>912</v>
       </c>
-      <c r="B312" s="4">
-        <v>0</v>
+      <c r="B312" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>913</v>
       </c>
-      <c r="B313" s="4">
-        <v>0</v>
+      <c r="B313" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>914</v>
       </c>
-      <c r="B314" s="4">
-        <v>0</v>
+      <c r="B314" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -11344,8 +11344,8 @@
       <c r="A317" t="s">
         <v>917</v>
       </c>
-      <c r="B317" s="4">
-        <v>0</v>
+      <c r="B317" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -11376,8 +11376,8 @@
       <c r="A321" t="s">
         <v>921</v>
       </c>
-      <c r="B321" s="4">
-        <v>0</v>
+      <c r="B321" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -11400,16 +11400,16 @@
       <c r="A324" t="s">
         <v>924</v>
       </c>
-      <c r="B324" s="4">
-        <v>0</v>
+      <c r="B324" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>925</v>
       </c>
-      <c r="B325" s="4">
-        <v>0</v>
+      <c r="B325" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -11424,24 +11424,24 @@
       <c r="A327" t="s">
         <v>927</v>
       </c>
-      <c r="B327" s="4">
-        <v>0</v>
+      <c r="B327" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>928</v>
       </c>
-      <c r="B328" s="4">
-        <v>0</v>
+      <c r="B328" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>929</v>
       </c>
-      <c r="B329" s="4">
-        <v>0</v>
+      <c r="B329" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -11456,16 +11456,16 @@
       <c r="A331" t="s">
         <v>931</v>
       </c>
-      <c r="B331" s="4">
-        <v>0</v>
+      <c r="B331" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>932</v>
       </c>
-      <c r="B332" s="4">
-        <v>0</v>
+      <c r="B332" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -11528,8 +11528,8 @@
       <c r="A340" t="s">
         <v>940</v>
       </c>
-      <c r="B340" s="4">
-        <v>0</v>
+      <c r="B340" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -11544,8 +11544,8 @@
       <c r="A342" t="s">
         <v>942</v>
       </c>
-      <c r="B342" s="4">
-        <v>0</v>
+      <c r="B342" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -11576,8 +11576,8 @@
       <c r="A346" t="s">
         <v>946</v>
       </c>
-      <c r="B346" s="4">
-        <v>0</v>
+      <c r="B346" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -11592,16 +11592,16 @@
       <c r="A348" t="s">
         <v>948</v>
       </c>
-      <c r="B348" s="4">
-        <v>0</v>
+      <c r="B348" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>949</v>
       </c>
-      <c r="B349" s="4">
-        <v>0</v>
+      <c r="B349" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -11632,40 +11632,40 @@
       <c r="A353" t="s">
         <v>953</v>
       </c>
-      <c r="B353" s="4">
-        <v>0</v>
+      <c r="B353" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>954</v>
       </c>
-      <c r="B354" s="4">
-        <v>0</v>
+      <c r="B354" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>955</v>
       </c>
-      <c r="B355" s="4">
-        <v>0</v>
+      <c r="B355" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>956</v>
       </c>
-      <c r="B356" s="4">
-        <v>0</v>
+      <c r="B356" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>957</v>
       </c>
-      <c r="B357" s="4">
-        <v>0</v>
+      <c r="B357" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -11680,16 +11680,16 @@
       <c r="A359" t="s">
         <v>959</v>
       </c>
-      <c r="B359" s="4">
-        <v>0</v>
+      <c r="B359" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>960</v>
       </c>
-      <c r="B360" s="4">
-        <v>0</v>
+      <c r="B360" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -11704,40 +11704,40 @@
       <c r="A362" t="s">
         <v>962</v>
       </c>
-      <c r="B362" s="4">
-        <v>0</v>
+      <c r="B362" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>963</v>
       </c>
-      <c r="B363" s="4">
-        <v>0</v>
+      <c r="B363" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>964</v>
       </c>
-      <c r="B364" s="4">
-        <v>0</v>
+      <c r="B364" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>965</v>
       </c>
-      <c r="B365" s="4">
-        <v>0</v>
+      <c r="B365" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>966</v>
       </c>
-      <c r="B366" s="4">
-        <v>0</v>
+      <c r="B366" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -11760,40 +11760,40 @@
       <c r="A369" t="s">
         <v>969</v>
       </c>
-      <c r="B369" s="4">
-        <v>0</v>
+      <c r="B369" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>970</v>
       </c>
-      <c r="B370" s="4">
-        <v>0</v>
+      <c r="B370" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>971</v>
       </c>
-      <c r="B371" s="4">
-        <v>0</v>
+      <c r="B371" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>972</v>
       </c>
-      <c r="B372" s="4">
-        <v>0</v>
+      <c r="B372" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>973</v>
       </c>
-      <c r="B373" s="4">
-        <v>0</v>
+      <c r="B373" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -11808,16 +11808,16 @@
       <c r="A375" t="s">
         <v>975</v>
       </c>
-      <c r="B375" s="4">
-        <v>0</v>
+      <c r="B375" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>976</v>
       </c>
-      <c r="B376" s="4">
-        <v>0</v>
+      <c r="B376" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -11840,16 +11840,16 @@
       <c r="A379" t="s">
         <v>979</v>
       </c>
-      <c r="B379" s="4">
-        <v>0</v>
+      <c r="B379" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>980</v>
       </c>
-      <c r="B380" s="4">
-        <v>0</v>
+      <c r="B380" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -11864,48 +11864,48 @@
       <c r="A382" t="s">
         <v>982</v>
       </c>
-      <c r="B382" s="4">
-        <v>0</v>
+      <c r="B382" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>983</v>
       </c>
-      <c r="B383" s="4">
-        <v>0</v>
+      <c r="B383" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>984</v>
       </c>
-      <c r="B384" s="4">
-        <v>0</v>
+      <c r="B384" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>985</v>
       </c>
-      <c r="B385" s="4">
-        <v>0</v>
+      <c r="B385" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>986</v>
       </c>
-      <c r="B386" s="4">
-        <v>0</v>
+      <c r="B386" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>987</v>
       </c>
-      <c r="B387" s="4">
-        <v>0</v>
+      <c r="B387" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -11920,56 +11920,56 @@
       <c r="A389" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="B389" s="4">
-        <v>0</v>
+      <c r="B389" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>990</v>
       </c>
-      <c r="B390" s="4">
-        <v>0</v>
+      <c r="B390" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>991</v>
       </c>
-      <c r="B391" s="4">
-        <v>0</v>
+      <c r="B391" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>992</v>
       </c>
-      <c r="B392" s="4">
-        <v>0</v>
+      <c r="B392" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>993</v>
       </c>
-      <c r="B393" s="4">
-        <v>0</v>
+      <c r="B393" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>994</v>
       </c>
-      <c r="B394" s="4">
-        <v>0</v>
+      <c r="B394" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>995</v>
       </c>
-      <c r="B395" s="4">
-        <v>0</v>
+      <c r="B395" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -11992,16 +11992,16 @@
       <c r="A398" t="s">
         <v>998</v>
       </c>
-      <c r="B398" s="4">
-        <v>0</v>
+      <c r="B398" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>999</v>
       </c>
-      <c r="B399" s="4">
-        <v>0</v>
+      <c r="B399" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
